--- a/all_annotated/BMY_Q1_2020_2.xlsx
+++ b/all_annotated/BMY_Q1_2020_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/earnings_call_transcripts_rated/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B22BAD1-1C4C-424C-8E7C-34C97EA1E288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CF2AAA-BABB-0F48-9254-85F12BA58B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>asker</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>I think you've managed to hit on the key points. The only other thing I would say is that the drop that we've seen in patient volume and particularly in new patient starts has varied really across therapeutic areas. So in the CV space, it's been sort of on the order of 20% to 25% across the NOAC class. A lesser extent in oncology and the tumors that we are in, it's been on the order of 5% to 20%. And as David mentioned, that has led to some choppiness, for example, in Opdivo sales in April, which we think is attributable to the new patients, to the drop in new patient starts. That said, we would expect that as David had mentioned, that would the biggest impact for that would be in the second quarter that would begin to normalize and be back to more normal levels by the third quarter - by the fourth quarter, and that's what we'll be continuing to monitor.</t>
-  </si>
-  <si>
-    <t>Thank you, David. So Samit and Chris can address both of your questions.</t>
   </si>
   <si>
     <t>Samit, do you want to start with the data on IBD and then I'll pick up on the commercial opportunity to talk about attributes.</t>
@@ -598,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -690,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -722,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -754,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -786,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -818,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -850,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -882,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -914,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -946,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -978,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1010,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1042,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1077,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1106,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1138,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1170,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1202,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1234,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1266,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1298,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1330,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1362,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1379,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1394,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1411,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -1426,47 +1423,15 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
         <v>2</v>
       </c>
     </row>
